--- a/Shor/shorCircuitSize.xlsx
+++ b/Shor/shorCircuitSize.xlsx
@@ -1,30 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sabry/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sabry/Desktop/research/Theseus/Shor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2727BF4A-828C-284E-BE00-67B793ACD1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A28B99-4DA7-6047-8116-3948D3C29E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="25820" windowHeight="16820" xr2:uid="{2F5F0F03-AC4E-0340-A646-3CF9D9A7EC5C}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="25820" windowHeight="16760" xr2:uid="{2F5F0F03-AC4E-0340-A646-3CF9D9A7EC5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$A$101</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$2:$B$101</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$2:$A$101</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$2:$B$101</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -130,19 +120,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -173,76 +157,36 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="6"/>
+            <c:size val="5"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:round/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
-                <a:prstDash val="sysDash"/>
+                <a:prstDash val="sysDot"/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="51608" dir="5400000" sx="101000" sy="101000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="FF0000"/>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="3"/>
@@ -264,9 +208,7 @@
                   <a:pPr>
                     <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="75000"/>
-                        </a:schemeClr>
+                        <a:srgbClr val="FF0000"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -899,7 +841,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A89-8D4D-A47E-D056B718CA13}"/>
+              <c16:uniqueId val="{00000000-307B-AD46-8EE0-79BC2B907A52}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -911,11 +853,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="343315264"/>
-        <c:axId val="343323632"/>
+        <c:axId val="1217596272"/>
+        <c:axId val="1217597920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="343315264"/>
+        <c:axId val="1217596272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -925,9 +867,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -935,6 +877,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of qubits</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -943,10 +940,12 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="50000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -957,8 +956,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -969,12 +969,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343323632"/>
+        <c:crossAx val="1217597920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="343323632"/>
+        <c:axId val="1217597920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -984,9 +984,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -994,7 +994,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of gates</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1002,10 +1057,12 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="50000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1016,8 +1073,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1028,7 +1086,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343315264"/>
+        <c:crossAx val="1217596272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1042,31 +1100,27 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1129,66 +1183,62 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -1197,8 +1247,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1217,6 +1268,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1225,20 +1284,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1247,13 +1306,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1265,31 +1324,30 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1305,18 +1363,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1335,13 +1396,14 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1353,14 +1415,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1374,8 +1436,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1389,6 +1452,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1400,9 +1469,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1417,13 +1486,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1435,14 +1505,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1454,13 +1524,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1469,13 +1540,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1483,7 +1555,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1496,19 +1568,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1516,14 +1580,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1535,19 +1599,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1563,7 +1620,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1572,8 +1629,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1589,13 +1647,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1604,17 +1663,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1626,6 +1688,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1635,22 +1703,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>604212</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>124178</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>189859</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B7D7F22-FFC8-624E-A4F3-A58E2101C06D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A695FCF-656E-E669-CA9C-3A299E873D91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1970,8 +2038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89AD1FF-6065-4148-9E47-A22B5EFB2BF6}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J99" sqref="J99"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
